--- a/forecast_summary_B08JHDL4WP.xlsx
+++ b/forecast_summary_B08JHDL4WP.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-0.08557151596782632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5405956464338095</v>
+        <v>0.5752141847340702</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>0.09435792857951625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7750622312703399</v>
+        <v>0.760362859669384</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>0.2885033384749683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.898875226280286</v>
+        <v>0.9585585508365361</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>0.2612343457953225</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8923907615204592</v>
+        <v>0.9174391595152838</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.06669650344115537</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6954859730850282</v>
+        <v>0.7446784572999728</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.07005184321763706</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5585638646087979</v>
+        <v>0.5872293193600119</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.0349591023661418</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6018337835010882</v>
+        <v>0.5669931994115441</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>0.07172882258830322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6871293094216538</v>
+        <v>0.7163618377028422</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>0.09502124651620204</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6836155299848127</v>
+        <v>0.7100479561002261</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>0.01286880882103927</v>
       </c>
       <c r="D11" t="n">
-        <v>0.637295763230563</v>
+        <v>0.6221449449995248</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-0.07119780678050976</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5972033080752844</v>
+        <v>0.5644580235186842</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-0.07781178107912785</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6047626838379065</v>
+        <v>0.5490909707710681</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-0.0328907560636143</v>
       </c>
       <c r="D14" t="n">
-        <v>0.582716605641929</v>
+        <v>0.6007146240520659</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.002285396032229204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6123525730457891</v>
+        <v>0.6740076230140463</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.00325476947146761</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6403830716264048</v>
+        <v>0.6634984503851794</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-0.01301610811299079</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5822104441666618</v>
+        <v>0.5799764636159995</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-0.03111366438938133</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6096281400804873</v>
+        <v>0.5714407609298948</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-0.08256130160352543</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5304371954691849</v>
+        <v>0.5463021164610333</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-0.1587847371561023</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4488745509491344</v>
+        <v>0.4907087661919319</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.1995055684098056</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4820868698568604</v>
+        <v>0.4518965032968436</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550 AORUS ELITE V2</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
